--- a/documentation/scotts_beaversource_proof/sensor_conversions.xlsx
+++ b/documentation/scotts_beaversource_proof/sensor_conversions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>From 16-bit int (x) to voltage(v)</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Multiply 16-bit int from ADC by 'Required Multiplier' to the the data in 'Resulting Units'</t>
+  </si>
+  <si>
+    <t>multiplier</t>
   </si>
 </sst>
 </file>
@@ -134,9 +137,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="0.00000000E+00"/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
-    <numFmt numFmtId="171" formatCode="0.0000000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.00000000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000E+00"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -206,15 +209,15 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,7 +516,7 @@
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -523,7 +526,11 @@
     <col min="3" max="3" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -596,9 +603,15 @@
         <v>6</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -625,9 +638,18 @@
         <v>12</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="G8" s="4">
+        <f>32767*C10</f>
+        <v>128.09103970741904</v>
+      </c>
+      <c r="H8" s="4">
+        <f>-32768*C10</f>
+        <v>-128.09494885502815</v>
+      </c>
+      <c r="I8" s="4">
+        <f>-32768/H8</f>
+        <v>255.81024304935931</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -756,9 +778,15 @@
         <v>6</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -785,8 +813,6 @@
         <v>16</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -849,9 +875,18 @@
         <v>21</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="G16" s="4">
+        <f>32767*C16</f>
+        <v>7.2722052166430391</v>
+      </c>
+      <c r="H16" s="4">
+        <f>-32768*C16</f>
+        <v>-7.2724271535068548</v>
+      </c>
+      <c r="I16" s="4">
+        <f>-32768/H16</f>
+        <v>4505.7859375324042</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
